--- a/Data Exchange Standard Tables/StreamHabitatStandard.xlsx
+++ b/Data Exchange Standard Tables/StreamHabitatStandard.xlsx
@@ -1,1245 +1,1252 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rscully\Documents\Projects\Habitat Data Sharing\2019_2020\Code\Stream-Monitoring-Data-Exchange-Specifications\Data Exchange Standard Tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399E7A24-56F2-4F5D-A443-9F756DD5DCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView minimized="1" xWindow="37590" yWindow="4980" windowWidth="19200" windowHeight="14655" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RecordLevel" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Location" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Event" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="MeasurementorFact" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="metricControlledVocabulary" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="DataMapping" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="RecordLevel" sheetId="1" r:id="rId1"/>
+    <sheet name="Location" sheetId="2" r:id="rId2"/>
+    <sheet name="Event" sheetId="3" r:id="rId3"/>
+    <sheet name="MeasurementorFact" sheetId="4" r:id="rId4"/>
+    <sheet name="metricControlledVocabulary" sheetId="5" r:id="rId5"/>
+    <sheet name="DataMapping" sheetId="6" r:id="rId6"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
-  <si>
-    <t xml:space="preserve">tblname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">termID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdommin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdommax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dataType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">examples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datasetID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unique identifier assigned to the originating source data's program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darwin Core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bibilographicCitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bibliographic reference for the resource as a statement indicating how this record should be cited (attributed) when used.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datasetLink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A URL identifier for the collection or dataset from which the record was derived. The source location for the originating source data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.epa.gov/national-aquatic-resource-surveys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Producer defned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datasetName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name of the originating data set from which the record was derived.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPA NARS 2018 dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">institutionCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name (or acronym) in use by the institution having custody of the object(s) or information referred to in the record.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLM,  EPA, USFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metadataID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A URL identifier for the metadata for the originating source dataset or note how to access metadata.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODM2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preProcessingCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL identifier for access to the code used to pre-process (download, standardize and tidy) the data sets before integration into the destination dataset.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">projectCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The acronym of the name assigned by the Institution (project leader or principal investigator) to the project, from which the source data originates from.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIBO, AIM, USFS, NRSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">projectName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name assigned by the Institution (project leader or principal investigator) to the project, from which the source data originates from.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USFS PacFish/InFish Biological Opinion Monitoring Program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A unique numeric identifier assigned to the originating source data's program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">locationID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique global identifier assigned to the location where the event occurred.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5483AIM, 88963AREMP, WtR563EPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verbatimLocationID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The verbatim location ID from the originating source dataset assigned by the monitoring program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5483, 88693, WtR563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The geographic latitude (WGS84) of the geographic center of a location.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.268600000000006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Float</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The geographic longitude (WGS84) of the geographic center of a location.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-163.74230800000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-67.240600000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">locationRemarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The location along the reach where geographic coordinates were obtained.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">siteSelectionType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The type of site selection used according to the program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random, Targeted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waterBody</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name of the water body in which the location occurs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eventDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The calendar date of the event from the source data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-05-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eventID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global unique identifier assigned to an Event (something that occurs at a place and time, such as a survey or measurement).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002-PIBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fieldNotes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The description of flow for the reach (flow, partial flow or dry).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dry, wet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samplingProtocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name of, reference to, or description of the stream survey method or protocol used during an Event.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UV light trap, "mist net", "bottom trawl", "ad hoc observation", "point count", "Penguins from space: faecal stains reveal the location of emperor penguin colonies, http://dx.doi.org/10.1111/j.1466-8238.2009.00467.x", "Takats et al. 2001. Guidelines for Nocturnal Owl Monitoring in North America. Beaverhill Bird Observatory and Bird Studies Canada, Edmonton, Alberta. 32 pp.", "http://www.bsc-eoc.org/download/Owl.pdf"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verbatimEventID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The verbatim event ID from the originating source dataset assigned by the program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beaverImpactFlow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beaver impact the flow of the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The four-digit year in which the event occurred.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MeasurementOrFact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global unique identifier assigned to the measurementValue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurmentTypeID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global unique identifier assigned to the term.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The value of the term attribute measured in units given in the term attribute definition.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45, "20", "1", "14.5", "UV-light"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The variable or name of the measurement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grad, WetWidth, ReachLen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementTypeID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edomvds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimumPossibleValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maximumPossibleValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MeasuremeorFact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reach sinuosity (reach length along the thalweg divided by straight line distance between the bottom of the reach and the top of the reach)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Producer Defined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numeric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinuosity of Local Stream Reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StreamOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strahler stream order of the site from the provider dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stream Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AvgBFWDRatio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width/depth ratio for the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankfull width to depth ratio at transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFHeight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull height measured from water surface across transects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankfull Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width across transects for the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width from transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">countTransectsBFWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of cross sections included in the average bankfull width calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count of measurments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of cross sections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean slope of water surface (percent) from the bottom of the reach to the top of the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gradient of stream reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MeanThalwegDepth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean thalweg depth. Metric of how deep water was at the site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Thalweg Depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReachLen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of sampling reach measured along the thalweg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of sampling reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WetWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average wetted width across transects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average wetted width from transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctPool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of the sample reach (linear extent) classified as pool habitat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent pools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average of the residual pool depth values for all pools in a reach. Residual pool depth the difference of the pool tail depth from the max depth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residual pool depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankAngle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured angle of the stream bank;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degrees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank angle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctStab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of 42 banks lacking visible signs of active erosion (e.g., slump, slough, fracture) (units: percent, min: 0, max: 100, n= 42)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent stable banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bed surface particle size corresponding to the 16th percentile of measured particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 16th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 1, max: 4098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median diameter of bed surface particle size corresponding to the areal median (50th percentile of measured particles) .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 50th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bed surface particle size corresponding to the 84th percentile of measured particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 84th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctBdrk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of the stream bed area that is composed of particles with a b-axis &gt; 4098mm (bedrock)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent Bed Surface Bedrock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of the stream bed area that is comprised of particles with a b-axis &lt; 2 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of streambed particles &lt;2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of the stream bed area that is composed of particles with a b-axis &lt; 6 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent of streambed particles &lt;6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolTailFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average percent fine sediment (&lt; 2mm) on the pool tail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent pool tail fines &lt; 2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolTailFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average percent fine sediment (&lt; 6mm) on the pool tail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent pool tail fines &lt; 6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conductivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measure of the concentration of ionized materials in water, or the ability of water to conduct electrical current. Used as a measure of mineral / ionic concentration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ppm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured pH value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpecificConductance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured specific conductance value. The specific conductance is conductivity standardized to 25 degrees C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uS/cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Conductance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 65500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalNitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured total nitrogen value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ug/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Nitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalPhosphorous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured total phosphorous value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Phosphorous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turbidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average water clarity as measured by the suspended solids in the water column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">originalField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">originalUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">originalDataType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">methodCollection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">methodAnalysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinuosity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">double</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AREMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRAHLERORDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ave_widthDepth_ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFWD_RAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6870 AND www.monitoringresources.org/Document/Method/Details/56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1064 OR  www.monitoringresources.org/Document/Method/Details/1275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDTrans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/65 | https://www.monitoringresources.org/Document/Method/Details/6871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average_bfdepth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/32163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankfullHeightAvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBKF_H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average_bfwidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankfullWidthAvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/32166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBKF_W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/32197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gradient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent, expressed as a decimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctSlope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XSLOPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ThalwegDepthAvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XDEPTH_CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REACH_LENGTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProtocolReachLength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REACHLEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RchLen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wettedWidth_ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WettedWidthAvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XWIDTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctReachInPools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctPools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolPct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ave_residual_depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResPoolDepthAvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolDp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankAngleAvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctBankStable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub_dmm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bedrock_pcnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_BDRK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log 10 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pcnt_fines_tran2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFinesLessThan2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_SAFN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">precent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pect_fines_tran6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFinesLessThan6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pool_fines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/32165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctPoolTailFinesLessThan2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/32164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctPoolTailFinesLessThan6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mg/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parts per million</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">µS/cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">µg/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TurbidityAvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TURB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SITE_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PointID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SiteID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lattitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal degrees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SampledMidLatitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAT_DD83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SampledMidLongitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LON_DD83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PointSelectionType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StreamName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site_survey_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EvaluationID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RchID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FieldEvalDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m/d/yyyy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATE_COL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SampDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey_year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YEAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProtocolType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROTOCOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Categorical: I, IS, IK, IKS, K, P, R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctDry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_DRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StrmFlow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Categorical: Flow, No Flow, Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beaver_impacted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BeaverFlowMod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7002</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="405">
+  <si>
+    <t>tblname</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>termID</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>rdommin</t>
+  </si>
+  <si>
+    <t>rdommax</t>
+  </si>
+  <si>
+    <t>dataType</t>
+  </si>
+  <si>
+    <t>examples</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>datasetID</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to the originating source data's program.</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Darwin Core</t>
+  </si>
+  <si>
+    <t>bibilographicCitation</t>
+  </si>
+  <si>
+    <t>A bibliographic reference for the resource as a statement indicating how this record should be cited (attributed) when used.</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>datasetLink</t>
+  </si>
+  <si>
+    <t>A URL identifier for the collection or dataset from which the record was derived. The source location for the originating source data.</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/national-aquatic-resource-surveys</t>
+  </si>
+  <si>
+    <t>Producer defned</t>
+  </si>
+  <si>
+    <t>datasetName</t>
+  </si>
+  <si>
+    <t>The name of the originating data set from which the record was derived.</t>
+  </si>
+  <si>
+    <t>EPA NARS 2018 dataset</t>
+  </si>
+  <si>
+    <t>institutionCode</t>
+  </si>
+  <si>
+    <t>The name (or acronym) in use by the institution having custody of the object(s) or information referred to in the record.</t>
+  </si>
+  <si>
+    <t>BLM,  EPA, USFS</t>
+  </si>
+  <si>
+    <t>metadataID</t>
+  </si>
+  <si>
+    <t>A URL identifier for the metadata for the originating source dataset or note how to access metadata.</t>
+  </si>
+  <si>
+    <t>ODM2</t>
+  </si>
+  <si>
+    <t>preProcessingCode</t>
+  </si>
+  <si>
+    <t>URL identifier for access to the code used to pre-process (download, standardize and tidy) the data sets before integration into the destination dataset.</t>
+  </si>
+  <si>
+    <t>projectCode</t>
+  </si>
+  <si>
+    <t>The acronym of the name assigned by the Institution (project leader or principal investigator) to the project, from which the source data originates from.</t>
+  </si>
+  <si>
+    <t>PIBO, AIM, USFS, NRSA</t>
+  </si>
+  <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>The name assigned by the Institution (project leader or principal investigator) to the project, from which the source data originates from.</t>
+  </si>
+  <si>
+    <t>USFS PacFish/InFish Biological Opinion Monitoring Program</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>A unique numeric identifier assigned to the originating source data's program.</t>
+  </si>
+  <si>
+    <t>locationID</t>
+  </si>
+  <si>
+    <t>Unique global identifier assigned to the location where the event occurred.</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>11584</t>
+  </si>
+  <si>
+    <t>5483AIM, 88963AREMP, WtR563EPA</t>
+  </si>
+  <si>
+    <t>verbatimLocationID</t>
+  </si>
+  <si>
+    <t>The verbatim location ID from the originating source dataset assigned by the monitoring program.</t>
+  </si>
+  <si>
+    <t>5483, 88693, WtR563</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>The geographic latitude (WGS84) of the geographic center of a location.</t>
+  </si>
+  <si>
+    <t>26.625</t>
+  </si>
+  <si>
+    <t>71.268600000000006</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>The geographic longitude (WGS84) of the geographic center of a location.</t>
+  </si>
+  <si>
+    <t>-163.74230800000001</t>
+  </si>
+  <si>
+    <t>-67.240600000000001</t>
+  </si>
+  <si>
+    <t>locationRemarks</t>
+  </si>
+  <si>
+    <t>The location along the reach where geographic coordinates were obtained.</t>
+  </si>
+  <si>
+    <t>siteSelectionType</t>
+  </si>
+  <si>
+    <t>The type of site selection used according to the program.</t>
+  </si>
+  <si>
+    <t>Random, Targeted</t>
+  </si>
+  <si>
+    <t>waterBody</t>
+  </si>
+  <si>
+    <t>The name of the water body in which the location occurs.</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>11585</t>
+  </si>
+  <si>
+    <t>eventDate</t>
+  </si>
+  <si>
+    <t>The calendar date of the event from the source data.</t>
+  </si>
+  <si>
+    <t>2000-05-20</t>
+  </si>
+  <si>
+    <t>2020-10-20</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>eventID</t>
+  </si>
+  <si>
+    <t>Global unique identifier assigned to an Event (something that occurs at a place and time, such as a survey or measurement).</t>
+  </si>
+  <si>
+    <t>16280</t>
+  </si>
+  <si>
+    <t>FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002-PIBO</t>
+  </si>
+  <si>
+    <t>fieldNotes</t>
+  </si>
+  <si>
+    <t>The description of flow for the reach (flow, partial flow or dry).</t>
+  </si>
+  <si>
+    <t>dry, wet</t>
+  </si>
+  <si>
+    <t>samplingProtocol</t>
+  </si>
+  <si>
+    <t>The name of, reference to, or description of the stream survey method or protocol used during an Event.</t>
+  </si>
+  <si>
+    <t>UV light trap, "mist net", "bottom trawl", "ad hoc observation", "point count", "Penguins from space: faecal stains reveal the location of emperor penguin colonies, http://dx.doi.org/10.1111/j.1466-8238.2009.00467.x", "Takats et al. 2001. Guidelines for Nocturnal Owl Monitoring in North America. Beaverhill Bird Observatory and Bird Studies Canada, Edmonton, Alberta. 32 pp.", "http://www.bsc-eoc.org/download/Owl.pdf"</t>
+  </si>
+  <si>
+    <t>verbatimEventID</t>
+  </si>
+  <si>
+    <t>The verbatim event ID from the originating source dataset assigned by the program.</t>
+  </si>
+  <si>
+    <t>FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002</t>
+  </si>
+  <si>
+    <t>beaverImpactFlow</t>
+  </si>
+  <si>
+    <t>Beaver impact the flow of the reach.</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>The four-digit year in which the event occurred.</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>MeasurementOrFact</t>
+  </si>
+  <si>
+    <t>measurementID</t>
+  </si>
+  <si>
+    <t>Global unique identifier assigned to the measurementValue.</t>
+  </si>
+  <si>
+    <t>191982</t>
+  </si>
+  <si>
+    <t>measurmentTypeID</t>
+  </si>
+  <si>
+    <t>Global unique identifier assigned to the term.</t>
+  </si>
+  <si>
+    <t>measurementValue</t>
+  </si>
+  <si>
+    <t>The value of the term attribute measured in units given in the term attribute definition.</t>
+  </si>
+  <si>
+    <t>45, "20", "1", "14.5", "UV-light"</t>
+  </si>
+  <si>
+    <t>measurementType</t>
+  </si>
+  <si>
+    <t>The variable or name of the measurement.</t>
+  </si>
+  <si>
+    <t>Grad, WetWidth, ReachLen</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>measurementTypeID</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>edomvds</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>longName</t>
+  </si>
+  <si>
+    <t>minimumPossibleValue</t>
+  </si>
+  <si>
+    <t>maximumPossibleValue</t>
+  </si>
+  <si>
+    <t>MeasuremeorFact</t>
+  </si>
+  <si>
+    <t>Sin</t>
+  </si>
+  <si>
+    <t>Reach sinuosity (reach length along the thalweg divided by straight line distance between the bottom of the reach and the top of the reach)</t>
+  </si>
+  <si>
+    <t>Producer Defined</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Sinuosity of Local Stream Reach</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>StreamOrder</t>
+  </si>
+  <si>
+    <t>Strahler stream order of the site from the provider dataset</t>
+  </si>
+  <si>
+    <t>Stream Order</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>AvgBFWDRatio</t>
+  </si>
+  <si>
+    <t>Average bankfull width/depth ratio for the reach.</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Bankfull width to depth ratio at transects</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>BFHeight</t>
+  </si>
+  <si>
+    <t>Average bankfull height measured from water surface across transects.</t>
+  </si>
+  <si>
+    <t>Bankfull Height</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>BFWidth</t>
+  </si>
+  <si>
+    <t>Average bankfull width across transects for the reach.</t>
+  </si>
+  <si>
+    <t>Average bankfull width from transects</t>
+  </si>
+  <si>
+    <t>countTransectsBFWidth</t>
+  </si>
+  <si>
+    <t>Number of cross sections included in the average bankfull width calculation</t>
+  </si>
+  <si>
+    <t>count of measurments</t>
+  </si>
+  <si>
+    <t>Count of cross sections</t>
+  </si>
+  <si>
+    <t>Grad</t>
+  </si>
+  <si>
+    <t>Mean slope of water surface (percent) from the bottom of the reach to the top of the reach.</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>Gradient of stream reach</t>
+  </si>
+  <si>
+    <t>min: 0, max: 100</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>MeanThalwegDepth</t>
+  </si>
+  <si>
+    <t>Mean thalweg depth. Metric of how deep water was at the site.</t>
+  </si>
+  <si>
+    <t>Average Thalweg Depth</t>
+  </si>
+  <si>
+    <t>ReachLen</t>
+  </si>
+  <si>
+    <t>Length of sampling reach measured along the thalweg</t>
+  </si>
+  <si>
+    <t>Length of sampling reach</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>WetWidth</t>
+  </si>
+  <si>
+    <t>Average wetted width across transects.</t>
+  </si>
+  <si>
+    <t>Average wetted width from transects</t>
+  </si>
+  <si>
+    <t>PctPool</t>
+  </si>
+  <si>
+    <t>percent of the sample reach (linear extent) classified as pool habitat</t>
+  </si>
+  <si>
+    <t>percent pools</t>
+  </si>
+  <si>
+    <t>RPD</t>
+  </si>
+  <si>
+    <t>Average of the residual pool depth values for all pools in a reach. Residual pool depth the difference of the pool tail depth from the max depth.</t>
+  </si>
+  <si>
+    <t>Residual pool depth</t>
+  </si>
+  <si>
+    <t>BankAngle</t>
+  </si>
+  <si>
+    <t>Measured angle of the stream bank;</t>
+  </si>
+  <si>
+    <t>degrees</t>
+  </si>
+  <si>
+    <t>Bank angle</t>
+  </si>
+  <si>
+    <t>min: 0, max: 180</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>PctStab</t>
+  </si>
+  <si>
+    <t>percent of 42 banks lacking visible signs of active erosion (e.g., slump, slough, fracture) (units: percent, min: 0, max: 100, n= 42)</t>
+  </si>
+  <si>
+    <t>percent stable banks</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>Bed surface particle size corresponding to the 16th percentile of measured particles</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Diameter of the 16th percentile streambed particle</t>
+  </si>
+  <si>
+    <t>min: 1, max: 4098</t>
+  </si>
+  <si>
+    <t>4098</t>
+  </si>
+  <si>
+    <t>D50</t>
+  </si>
+  <si>
+    <t>Median diameter of bed surface particle size corresponding to the areal median (50th percentile of measured particles) .</t>
+  </si>
+  <si>
+    <t>Diameter of the 50th percentile streambed particle</t>
+  </si>
+  <si>
+    <t>D84</t>
+  </si>
+  <si>
+    <t>Bed surface particle size corresponding to the 84th percentile of measured particles</t>
+  </si>
+  <si>
+    <t>Diameter of the 84th percentile streambed particle</t>
+  </si>
+  <si>
+    <t>PctBdrk</t>
+  </si>
+  <si>
+    <t>percent of the stream bed area that is composed of particles with a b-axis &gt; 4098mm (bedrock)</t>
+  </si>
+  <si>
+    <t>percent Bed Surface Bedrock</t>
+  </si>
+  <si>
+    <t>PctFines2</t>
+  </si>
+  <si>
+    <t>percent of the stream bed area that is comprised of particles with a b-axis &lt; 2 mm</t>
+  </si>
+  <si>
+    <t>percent of streambed particles &lt;2mm</t>
+  </si>
+  <si>
+    <t>PctFines6</t>
+  </si>
+  <si>
+    <t>percent of the stream bed area that is composed of particles with a b-axis &lt; 6 mm</t>
+  </si>
+  <si>
+    <t>percent of streambed particles &lt;6mm</t>
+  </si>
+  <si>
+    <t>PoolTailFines2</t>
+  </si>
+  <si>
+    <t>Average percent fine sediment (&lt; 2mm) on the pool tail</t>
+  </si>
+  <si>
+    <t>percent pool tail fines &lt; 2mm</t>
+  </si>
+  <si>
+    <t>PoolTailFines6</t>
+  </si>
+  <si>
+    <t>Average percent fine sediment (&lt; 6mm) on the pool tail</t>
+  </si>
+  <si>
+    <t>percent pool tail fines &lt; 6mm</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
+    <t>Measure of the concentration of ionized materials in water, or the ability of water to conduct electrical current. Used as a measure of mineral / ionic concentration.</t>
+  </si>
+  <si>
+    <t>ppm</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Measured pH value</t>
+  </si>
+  <si>
+    <t>min: 0, max: 14</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>SpecificConductance</t>
+  </si>
+  <si>
+    <t>Measured specific conductance value. The specific conductance is conductivity standardized to 25 degrees C.</t>
+  </si>
+  <si>
+    <t>uS/cm</t>
+  </si>
+  <si>
+    <t>Specific Conductance</t>
+  </si>
+  <si>
+    <t>min: 0, max: 65500</t>
+  </si>
+  <si>
+    <t>65500</t>
+  </si>
+  <si>
+    <t>TotalNitrogen</t>
+  </si>
+  <si>
+    <t>Measured total nitrogen value</t>
+  </si>
+  <si>
+    <t>ug/L</t>
+  </si>
+  <si>
+    <t>Total Nitrogen</t>
+  </si>
+  <si>
+    <t>TotalPhosphorous</t>
+  </si>
+  <si>
+    <t>Measured total phosphorous value</t>
+  </si>
+  <si>
+    <t>Total Phosphorous</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
+    <t>Average water clarity as measured by the suspended solids in the water column</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>originalField</t>
+  </si>
+  <si>
+    <t>originalUnit</t>
+  </si>
+  <si>
+    <t>originalDataType</t>
+  </si>
+  <si>
+    <t>methodCollection</t>
+  </si>
+  <si>
+    <t>methodAnalysis</t>
+  </si>
+  <si>
+    <t>AIM</t>
+  </si>
+  <si>
+    <t>Sinuosity</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7017</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7007</t>
+  </si>
+  <si>
+    <t>NRSA</t>
+  </si>
+  <si>
+    <t>SINU</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/1610</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7005</t>
+  </si>
+  <si>
+    <t>PIBO</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6868</t>
+  </si>
+  <si>
+    <t>AREMP</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>STRAHLERORDER</t>
+  </si>
+  <si>
+    <t>ave_widthDepth_ratio</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/CustomizedMethod/Details/31107</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/4245</t>
+  </si>
+  <si>
+    <t>BFWD_RAT</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6870 AND www.monitoringresources.org/Document/Method/Details/56</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/1064 OR  www.monitoringresources.org/Document/Method/Details/1275</t>
+  </si>
+  <si>
+    <t>WDTrans</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/65 | https://www.monitoringresources.org/Document/Method/Details/6871</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7047</t>
+  </si>
+  <si>
+    <t>average_bfdepth</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/CustomizedMethod/Details/32163</t>
+  </si>
+  <si>
+    <t>BankfullHeightAvg</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7013</t>
+  </si>
+  <si>
+    <t>XBKF_H</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/56</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7014</t>
+  </si>
+  <si>
+    <t>average_bfwidth</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6849</t>
+  </si>
+  <si>
+    <t>BankfullWidthAvg</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7030</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/CustomizedMethod/Details/32166</t>
+  </si>
+  <si>
+    <t>XBKF_W</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6870</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/4103</t>
+  </si>
+  <si>
+    <t>Bf</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6871</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/CustomizedMethod/Details/32197</t>
+  </si>
+  <si>
+    <t>gradient</t>
+  </si>
+  <si>
+    <t>percent, expressed as a decimal</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6852</t>
+  </si>
+  <si>
+    <t>PctSlope</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/CustomizedMethod/Details/31139</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7033</t>
+  </si>
+  <si>
+    <t>XSLOPE</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/4113</t>
+  </si>
+  <si>
+    <t>ThalwegDepthAvg</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7008</t>
+  </si>
+  <si>
+    <t>XDEPTH_CM</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/74</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7015</t>
+  </si>
+  <si>
+    <t>REACH_LENGTH</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/3807</t>
+  </si>
+  <si>
+    <t>ProtocolReachLength</t>
+  </si>
+  <si>
+    <t>REACHLEN</t>
+  </si>
+  <si>
+    <t>RchLen</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/58</t>
+  </si>
+  <si>
+    <t>wettedWidth_ave</t>
+  </si>
+  <si>
+    <t>WettedWidthAvg</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7031</t>
+  </si>
+  <si>
+    <t>XWIDTH</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/3893</t>
+  </si>
+  <si>
+    <t>PctReachInPools</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6844</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/3852</t>
+  </si>
+  <si>
+    <t>PctPools</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6859</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/4115</t>
+  </si>
+  <si>
+    <t>PoolPct</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6872</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/55</t>
+  </si>
+  <si>
+    <t>ave_residual_depth</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6976</t>
+  </si>
+  <si>
+    <t>ResPoolDepthAvg</t>
+  </si>
+  <si>
+    <t>PoolDp</t>
+  </si>
+  <si>
+    <t>BankAngleAvg</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/68</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7034</t>
+  </si>
+  <si>
+    <t>PctBankStable</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7026</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7010</t>
+  </si>
+  <si>
+    <t>Stab</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/69</t>
+  </si>
+  <si>
+    <t>tbd</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6801</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7025</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6797</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/1730</t>
+  </si>
+  <si>
+    <t>Sub_dmm</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6874</t>
+  </si>
+  <si>
+    <t>bedrock_pcnt</t>
+  </si>
+  <si>
+    <t>PCT_BDRK</t>
+  </si>
+  <si>
+    <t>Log 10 mm</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7011</t>
+  </si>
+  <si>
+    <t>pcnt_fines_tran2</t>
+  </si>
+  <si>
+    <t>PctFinesLessThan2mm</t>
+  </si>
+  <si>
+    <t>PCT_SAFN</t>
+  </si>
+  <si>
+    <t>precent</t>
+  </si>
+  <si>
+    <t>pect_fines_tran6</t>
+  </si>
+  <si>
+    <t>PctFinesLessThan6mm</t>
+  </si>
+  <si>
+    <t>pool_fines</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6798</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/CustomizedMethod/Details/32165</t>
+  </si>
+  <si>
+    <t>PctPoolTailFinesLessThan2mm</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6862</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/CustomizedMethod/Details/32164</t>
+  </si>
+  <si>
+    <t>PTFines2</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/868</t>
+  </si>
+  <si>
+    <t>PctPoolTailFinesLessThan6mm</t>
+  </si>
+  <si>
+    <t>PTFines6</t>
+  </si>
+  <si>
+    <t>TSS</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7016</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7048</t>
+  </si>
+  <si>
+    <t>Cond</t>
+  </si>
+  <si>
+    <t>Parts per million</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/61</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6673</t>
+  </si>
+  <si>
+    <t>µS/cm</t>
+  </si>
+  <si>
+    <t>COND</t>
+  </si>
+  <si>
+    <t>µg/L</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7023</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7024</t>
+  </si>
+  <si>
+    <t>NTL</t>
+  </si>
+  <si>
+    <t>PTL</t>
+  </si>
+  <si>
+    <t>TurbidityAvg</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7012</t>
+  </si>
+  <si>
+    <t>TURB</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>SITE_ID</t>
+  </si>
+  <si>
+    <t>PointID</t>
+  </si>
+  <si>
+    <t>SiteID</t>
+  </si>
+  <si>
+    <t>lattitude</t>
+  </si>
+  <si>
+    <t>decimal degrees</t>
+  </si>
+  <si>
+    <t>SampledMidLatitude</t>
+  </si>
+  <si>
+    <t>LAT_DD83</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>SampledMidLongitude</t>
+  </si>
+  <si>
+    <t>LON_DD83</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>PointSelectionType</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>StreamName</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>site_survey_id</t>
+  </si>
+  <si>
+    <t>EvaluationID</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>RchID</t>
+  </si>
+  <si>
+    <t>survey_date</t>
+  </si>
+  <si>
+    <t>FieldEvalDate</t>
+  </si>
+  <si>
+    <t>m/d/yyyy</t>
+  </si>
+  <si>
+    <t>DATE_COL</t>
+  </si>
+  <si>
+    <t>SampDate</t>
+  </si>
+  <si>
+    <t>survey_year</t>
+  </si>
+  <si>
+    <t>Interger</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>Yr</t>
+  </si>
+  <si>
+    <t>survey_type</t>
+  </si>
+  <si>
+    <t>ProtocolType</t>
+  </si>
+  <si>
+    <t>PROTOCOL</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Categorical: I, IS, IK, IKS, K, P, R</t>
+  </si>
+  <si>
+    <t>PctDry</t>
+  </si>
+  <si>
+    <t>PCT_DRS</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7018</t>
+  </si>
+  <si>
+    <t>StrmFlow</t>
+  </si>
+  <si>
+    <t>Categorical: Flow, No Flow, Other</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/924</t>
+  </si>
+  <si>
+    <t>beaver_impacted</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7003</t>
+  </si>
+  <si>
+    <t>BeaverFlowMod</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/7002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1275,6 +1282,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1556,14 +1572,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1592,67 +1608,59 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
       <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2"/>
       <c r="I2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>105</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
       <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="H3"/>
       <c r="I3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>107</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
       <c r="G4" t="s">
         <v>16</v>
       </c>
@@ -1663,21 +1671,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>108</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
       <c r="G5" t="s">
         <v>16</v>
       </c>
@@ -1688,21 +1694,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>101</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="E6"/>
-      <c r="F6"/>
       <c r="G6" t="s">
         <v>16</v>
       </c>
@@ -1713,67 +1717,59 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>102</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="E7"/>
-      <c r="F7"/>
       <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="H7"/>
       <c r="I7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>104</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="E8"/>
-      <c r="F8"/>
       <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="H8"/>
       <c r="I8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>110</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="E9"/>
-      <c r="F9"/>
       <c r="G9" t="s">
         <v>16</v>
       </c>
@@ -1784,21 +1780,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>109</v>
       </c>
       <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="E10"/>
-      <c r="F10"/>
       <c r="G10" t="s">
         <v>16</v>
       </c>
@@ -1811,19 +1805,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1852,35 +1846,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
       <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2"/>
-      <c r="I2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>200</v>
       </c>
       <c r="D3" t="s">
@@ -1902,21 +1892,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>201</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
       <c r="G4" t="s">
         <v>16</v>
       </c>
@@ -1927,14 +1915,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>202</v>
       </c>
       <c r="D5" t="s">
@@ -1949,19 +1937,18 @@
       <c r="G5" t="s">
         <v>52</v>
       </c>
-      <c r="H5"/>
       <c r="I5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>203</v>
       </c>
       <c r="D6" t="s">
@@ -1976,49 +1963,43 @@
       <c r="G6" t="s">
         <v>52</v>
       </c>
-      <c r="H6"/>
       <c r="I6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>204</v>
       </c>
       <c r="D7" t="s">
         <v>58</v>
       </c>
-      <c r="E7"/>
-      <c r="F7"/>
       <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="H7"/>
       <c r="I7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>205</v>
       </c>
       <c r="D8" t="s">
         <v>60</v>
       </c>
-      <c r="E8"/>
-      <c r="F8"/>
       <c r="G8" t="s">
         <v>16</v>
       </c>
@@ -2029,44 +2010,41 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>206</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9"/>
-      <c r="F9"/>
       <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="H9"/>
       <c r="I9" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2095,14 +2073,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>200</v>
       </c>
       <c r="D2" t="s">
@@ -2117,17 +2095,15 @@
       <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2"/>
-      <c r="I2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>302</v>
       </c>
       <c r="D3" t="s">
@@ -2142,19 +2118,18 @@
       <c r="G3" t="s">
         <v>70</v>
       </c>
-      <c r="H3"/>
       <c r="I3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>300</v>
       </c>
       <c r="D4" t="s">
@@ -2176,21 +2151,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>305</v>
       </c>
       <c r="D5" t="s">
         <v>76</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
       <c r="G5" t="s">
         <v>16</v>
       </c>
@@ -2201,21 +2174,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>304</v>
       </c>
       <c r="D6" t="s">
         <v>79</v>
       </c>
-      <c r="E6"/>
-      <c r="F6"/>
       <c r="G6" t="s">
         <v>16</v>
       </c>
@@ -2226,21 +2197,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>81</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>301</v>
       </c>
       <c r="D7" t="s">
         <v>82</v>
       </c>
-      <c r="E7"/>
-      <c r="F7"/>
       <c r="G7" t="s">
         <v>16</v>
       </c>
@@ -2251,37 +2220,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>64</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>306</v>
       </c>
       <c r="D8" t="s">
         <v>85</v>
       </c>
-      <c r="E8"/>
-      <c r="F8"/>
       <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="H8"/>
       <c r="I8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>64</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>303</v>
       </c>
       <c r="D9" t="s">
@@ -2305,19 +2271,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2346,14 +2312,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>300</v>
       </c>
       <c r="D2" t="s">
@@ -2368,19 +2334,18 @@
       <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2"/>
       <c r="I2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>92</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>400</v>
       </c>
       <c r="D3" t="s">
@@ -2395,45 +2360,37 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3"/>
       <c r="I3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>91</v>
       </c>
       <c r="B4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>401</v>
       </c>
       <c r="D4" t="s">
         <v>96</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>91</v>
       </c>
       <c r="B5" t="s">
         <v>97</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>403</v>
       </c>
       <c r="D5" t="s">
         <v>98</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
       <c r="G5" t="s">
         <v>52</v>
       </c>
@@ -2444,21 +2401,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>91</v>
       </c>
       <c r="B6" t="s">
         <v>100</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>402</v>
       </c>
       <c r="D6" t="s">
         <v>101</v>
       </c>
-      <c r="E6"/>
-      <c r="F6"/>
       <c r="G6" t="s">
         <v>16</v>
       </c>
@@ -2471,19 +2426,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="10" width="45.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -2524,17 +2482,17 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>111</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>401</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>500</v>
       </c>
       <c r="E2" t="s">
@@ -2555,7 +2513,6 @@
       <c r="J2" t="s">
         <v>117</v>
       </c>
-      <c r="K2"/>
       <c r="L2" t="s">
         <v>42</v>
       </c>
@@ -2563,17 +2520,17 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>111</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>401</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>501</v>
       </c>
       <c r="E3" t="s">
@@ -2594,7 +2551,6 @@
       <c r="J3" t="s">
         <v>121</v>
       </c>
-      <c r="K3"/>
       <c r="L3" t="s">
         <v>42</v>
       </c>
@@ -2602,17 +2558,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>111</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>401</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>502</v>
       </c>
       <c r="E4" t="s">
@@ -2633,7 +2589,6 @@
       <c r="J4" t="s">
         <v>126</v>
       </c>
-      <c r="K4"/>
       <c r="L4" t="s">
         <v>127</v>
       </c>
@@ -2641,17 +2596,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>111</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>401</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>503</v>
       </c>
       <c r="E5" t="s">
@@ -2672,7 +2627,6 @@
       <c r="J5" t="s">
         <v>130</v>
       </c>
-      <c r="K5"/>
       <c r="L5" t="s">
         <v>127</v>
       </c>
@@ -2680,17 +2634,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>111</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>401</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>504</v>
       </c>
       <c r="E6" t="s">
@@ -2711,7 +2665,6 @@
       <c r="J6" t="s">
         <v>134</v>
       </c>
-      <c r="K6"/>
       <c r="L6" t="s">
         <v>127</v>
       </c>
@@ -2719,17 +2672,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>111</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>401</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>505</v>
       </c>
       <c r="E7" t="s">
@@ -2750,7 +2703,6 @@
       <c r="J7" t="s">
         <v>138</v>
       </c>
-      <c r="K7"/>
       <c r="L7" t="s">
         <v>127</v>
       </c>
@@ -2758,17 +2710,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>111</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>401</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>506</v>
       </c>
       <c r="E8" t="s">
@@ -2799,17 +2751,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>111</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>401</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>507</v>
       </c>
       <c r="E9" t="s">
@@ -2830,7 +2782,6 @@
       <c r="J9" t="s">
         <v>147</v>
       </c>
-      <c r="K9"/>
       <c r="L9" t="s">
         <v>127</v>
       </c>
@@ -2838,17 +2789,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>111</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>401</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>508</v>
       </c>
       <c r="E10" t="s">
@@ -2869,7 +2820,6 @@
       <c r="J10" t="s">
         <v>150</v>
       </c>
-      <c r="K10"/>
       <c r="L10" t="s">
         <v>151</v>
       </c>
@@ -2877,17 +2827,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>111</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>401</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>509</v>
       </c>
       <c r="E11" t="s">
@@ -2908,7 +2858,6 @@
       <c r="J11" t="s">
         <v>155</v>
       </c>
-      <c r="K11"/>
       <c r="L11" t="s">
         <v>127</v>
       </c>
@@ -2916,17 +2865,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>111</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>401</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>510</v>
       </c>
       <c r="E12" t="s">
@@ -2957,17 +2906,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>111</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>401</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>511</v>
       </c>
       <c r="E13" t="s">
@@ -2988,7 +2937,6 @@
       <c r="J13" t="s">
         <v>161</v>
       </c>
-      <c r="K13"/>
       <c r="L13" t="s">
         <v>127</v>
       </c>
@@ -2996,17 +2944,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>111</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>401</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>512</v>
       </c>
       <c r="E14" t="s">
@@ -3037,17 +2985,17 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>111</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>401</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>513</v>
       </c>
       <c r="E15" t="s">
@@ -3078,17 +3026,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>111</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>401</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>514</v>
       </c>
       <c r="E16" t="s">
@@ -3119,17 +3067,17 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>111</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>401</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>515</v>
       </c>
       <c r="E17" t="s">
@@ -3160,17 +3108,17 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>401</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>516</v>
       </c>
       <c r="E18" t="s">
@@ -3201,17 +3149,17 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>111</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>401</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>517</v>
       </c>
       <c r="E19" t="s">
@@ -3242,17 +3190,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>111</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>401</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>518</v>
       </c>
       <c r="E20" t="s">
@@ -3283,17 +3231,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>111</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>401</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>519</v>
       </c>
       <c r="E21" t="s">
@@ -3324,17 +3272,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>111</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>401</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>520</v>
       </c>
       <c r="E22" t="s">
@@ -3365,17 +3313,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>111</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>401</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>522</v>
       </c>
       <c r="E23" t="s">
@@ -3406,17 +3354,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>111</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>401</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>523</v>
       </c>
       <c r="E24" t="s">
@@ -3437,7 +3385,6 @@
       <c r="J24" t="s">
         <v>198</v>
       </c>
-      <c r="K24"/>
       <c r="L24" t="s">
         <v>127</v>
       </c>
@@ -3445,17 +3392,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>111</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>401</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>524</v>
       </c>
       <c r="E25" t="s">
@@ -3486,17 +3433,17 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>111</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>401</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>525</v>
       </c>
       <c r="E26" t="s">
@@ -3527,17 +3474,17 @@
         <v>210</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>111</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>401</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>526</v>
       </c>
       <c r="E27" t="s">
@@ -3558,7 +3505,6 @@
       <c r="J27" t="s">
         <v>214</v>
       </c>
-      <c r="K27"/>
       <c r="L27" t="s">
         <v>127</v>
       </c>
@@ -3566,17 +3512,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>111</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>401</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>527</v>
       </c>
       <c r="E28" t="s">
@@ -3597,7 +3543,6 @@
       <c r="J28" t="s">
         <v>217</v>
       </c>
-      <c r="K28"/>
       <c r="L28" t="s">
         <v>127</v>
       </c>
@@ -3605,17 +3550,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>111</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>401</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>528</v>
       </c>
       <c r="E29" t="s">
@@ -3636,7 +3581,6 @@
       <c r="J29" t="s">
         <v>218</v>
       </c>
-      <c r="K29"/>
       <c r="L29" t="s">
         <v>127</v>
       </c>
@@ -3646,19 +3590,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3693,14 +3637,14 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>401</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>500</v>
       </c>
       <c r="D2" t="s">
@@ -3728,14 +3672,14 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>401</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>500</v>
       </c>
       <c r="D3" t="s">
@@ -3763,14 +3707,14 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>401</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>500</v>
       </c>
       <c r="D4" t="s">
@@ -3798,14 +3742,14 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>401</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>501</v>
       </c>
       <c r="D5" t="s">
@@ -3820,21 +3764,18 @@
       <c r="G5" t="s">
         <v>119</v>
       </c>
-      <c r="H5"/>
       <c r="I5" t="s">
         <v>239</v>
       </c>
-      <c r="J5"/>
-      <c r="K5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>401</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>501</v>
       </c>
       <c r="D6" t="s">
@@ -3849,21 +3790,18 @@
       <c r="G6" t="s">
         <v>119</v>
       </c>
-      <c r="H6"/>
       <c r="I6" t="s">
         <v>239</v>
       </c>
-      <c r="J6"/>
-      <c r="K6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>401</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>501</v>
       </c>
       <c r="D7" t="s">
@@ -3878,21 +3816,18 @@
       <c r="G7" t="s">
         <v>240</v>
       </c>
-      <c r="H7"/>
       <c r="I7" t="s">
         <v>229</v>
       </c>
-      <c r="J7"/>
-      <c r="K7"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>401</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>502</v>
       </c>
       <c r="D8" t="s">
@@ -3920,14 +3855,14 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>401</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>502</v>
       </c>
       <c r="D9" t="s">
@@ -3955,14 +3890,14 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>401</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>502</v>
       </c>
       <c r="D10" t="s">
@@ -3990,14 +3925,14 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>401</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>503</v>
       </c>
       <c r="D11" t="s">
@@ -4025,14 +3960,14 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>401</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>503</v>
       </c>
       <c r="D12" t="s">
@@ -4060,14 +3995,14 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>401</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>503</v>
       </c>
       <c r="D13" t="s">
@@ -4095,14 +4030,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>401</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>504</v>
       </c>
       <c r="D14" t="s">
@@ -4130,14 +4065,14 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>401</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>504</v>
       </c>
       <c r="D15" t="s">
@@ -4165,14 +4100,14 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>401</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>504</v>
       </c>
       <c r="D16" t="s">
@@ -4200,14 +4135,14 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>401</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>504</v>
       </c>
       <c r="D17" t="s">
@@ -4235,14 +4170,14 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>401</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>506</v>
       </c>
       <c r="D18" t="s">
@@ -4266,16 +4201,15 @@
       <c r="J18" t="s">
         <v>270</v>
       </c>
-      <c r="K18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>401</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>506</v>
       </c>
       <c r="D19" t="s">
@@ -4303,14 +4237,14 @@
         <v>273</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>401</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>506</v>
       </c>
       <c r="D20" t="s">
@@ -4338,14 +4272,14 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>401</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>506</v>
       </c>
       <c r="D21" t="s">
@@ -4373,14 +4307,14 @@
         <v>275</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>401</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>507</v>
       </c>
       <c r="D22" t="s">
@@ -4408,14 +4342,14 @@
         <v>243</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>401</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>507</v>
       </c>
       <c r="D23" t="s">
@@ -4443,14 +4377,14 @@
         <v>281</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>401</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>508</v>
       </c>
       <c r="D24" t="s">
@@ -4474,16 +4408,15 @@
       <c r="J24" t="s">
         <v>283</v>
       </c>
-      <c r="K24"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>401</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>508</v>
       </c>
       <c r="D25" t="s">
@@ -4507,16 +4440,15 @@
       <c r="J25" t="s">
         <v>230</v>
       </c>
-      <c r="K25"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>401</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>508</v>
       </c>
       <c r="D26" t="s">
@@ -4540,16 +4472,15 @@
       <c r="J26" t="s">
         <v>234</v>
       </c>
-      <c r="K26"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>401</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>508</v>
       </c>
       <c r="D27" t="s">
@@ -4573,16 +4504,15 @@
       <c r="J27" t="s">
         <v>287</v>
       </c>
-      <c r="K27"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>401</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>509</v>
       </c>
       <c r="D28" t="s">
@@ -4610,14 +4540,14 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>401</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>509</v>
       </c>
       <c r="D29" t="s">
@@ -4645,14 +4575,14 @@
         <v>243</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>401</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>509</v>
       </c>
       <c r="D30" t="s">
@@ -4680,14 +4610,14 @@
         <v>292</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>401</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>510</v>
       </c>
       <c r="D31" t="s">
@@ -4715,14 +4645,14 @@
         <v>295</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>401</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>510</v>
       </c>
       <c r="D32" t="s">
@@ -4750,14 +4680,14 @@
         <v>298</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>401</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>510</v>
       </c>
       <c r="D33" t="s">
@@ -4785,14 +4715,14 @@
         <v>301</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>401</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>511</v>
       </c>
       <c r="D34" t="s">
@@ -4820,14 +4750,14 @@
         <v>303</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>401</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>511</v>
       </c>
       <c r="D35" t="s">
@@ -4855,14 +4785,14 @@
         <v>303</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>401</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>511</v>
       </c>
       <c r="D36" t="s">
@@ -4890,14 +4820,14 @@
         <v>303</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>401</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>512</v>
       </c>
       <c r="D37" t="s">
@@ -4925,14 +4855,14 @@
         <v>308</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>401</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>512</v>
       </c>
       <c r="D38" t="s">
@@ -4956,16 +4886,15 @@
       <c r="J38" t="s">
         <v>307</v>
       </c>
-      <c r="K38"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>401</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>513</v>
       </c>
       <c r="D39" t="s">
@@ -4993,14 +4922,14 @@
         <v>311</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>401</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>513</v>
       </c>
       <c r="D40" t="s">
@@ -5028,14 +4957,14 @@
         <v>314</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>401</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>514</v>
       </c>
       <c r="D41" t="s">
@@ -5063,14 +4992,14 @@
         <v>316</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>401</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>514</v>
       </c>
       <c r="D42" t="s">
@@ -5098,14 +5027,14 @@
         <v>318</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>401</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>515</v>
       </c>
       <c r="D43" t="s">
@@ -5133,14 +5062,14 @@
         <v>316</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44">
         <v>401</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>515</v>
       </c>
       <c r="D44" t="s">
@@ -5168,14 +5097,14 @@
         <v>316</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>401</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>515</v>
       </c>
       <c r="D45" t="s">
@@ -5190,7 +5119,6 @@
       <c r="G45" t="s">
         <v>319</v>
       </c>
-      <c r="H45"/>
       <c r="I45" t="s">
         <v>229</v>
       </c>
@@ -5201,14 +5129,14 @@
         <v>318</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>401</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>515</v>
       </c>
       <c r="D46" t="s">
@@ -5236,14 +5164,14 @@
         <v>318</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>401</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>516</v>
       </c>
       <c r="D47" t="s">
@@ -5271,14 +5199,14 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>401</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>516</v>
       </c>
       <c r="D48" t="s">
@@ -5306,14 +5234,14 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>401</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>517</v>
       </c>
       <c r="D49" t="s">
@@ -5341,14 +5269,14 @@
         <v>316</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50">
         <v>401</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>517</v>
       </c>
       <c r="D50" t="s">
@@ -5376,14 +5304,14 @@
         <v>324</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>401</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>518</v>
       </c>
       <c r="D51" t="s">
@@ -5411,14 +5339,14 @@
         <v>316</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52">
         <v>401</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>518</v>
       </c>
       <c r="D52" t="s">
@@ -5446,14 +5374,14 @@
         <v>316</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53">
         <v>401</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>518</v>
       </c>
       <c r="D53" t="s">
@@ -5481,14 +5409,14 @@
         <v>324</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54">
         <v>401</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>519</v>
       </c>
       <c r="D54" t="s">
@@ -5516,14 +5444,14 @@
         <v>316</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55">
         <v>401</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>519</v>
       </c>
       <c r="D55" t="s">
@@ -5551,14 +5479,14 @@
         <v>316</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56">
         <v>401</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>520</v>
       </c>
       <c r="D56" t="s">
@@ -5586,14 +5514,14 @@
         <v>333</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57">
         <v>401</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>520</v>
       </c>
       <c r="D57" t="s">
@@ -5621,14 +5549,14 @@
         <v>336</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58">
         <v>401</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>520</v>
       </c>
       <c r="D58" t="s">
@@ -5656,14 +5584,14 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59">
         <v>401</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>522</v>
       </c>
       <c r="D59" t="s">
@@ -5691,14 +5619,14 @@
         <v>336</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60">
         <v>401</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>522</v>
       </c>
       <c r="D60" t="s">
@@ -5726,14 +5654,14 @@
         <v>338</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61">
         <v>401</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>523</v>
       </c>
       <c r="D61" t="s">
@@ -5761,14 +5689,14 @@
         <v>344</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62">
         <v>401</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>523</v>
       </c>
       <c r="D62" t="s">
@@ -5796,14 +5724,14 @@
         <v>314</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63">
         <v>401</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>524</v>
       </c>
       <c r="D63" t="s">
@@ -5827,16 +5755,15 @@
       <c r="J63" t="s">
         <v>349</v>
       </c>
-      <c r="K63"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64">
         <v>401</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>525</v>
       </c>
       <c r="D64" t="s">
@@ -5860,16 +5787,15 @@
       <c r="J64" t="s">
         <v>349</v>
       </c>
-      <c r="K64"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65">
         <v>401</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>525</v>
       </c>
       <c r="D65" t="s">
@@ -5897,14 +5823,14 @@
         <v>344</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66">
         <v>401</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>526</v>
       </c>
       <c r="D66" t="s">
@@ -5932,14 +5858,14 @@
         <v>354</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67">
         <v>401</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>526</v>
       </c>
       <c r="D67" t="s">
@@ -5967,14 +5893,14 @@
         <v>344</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68">
         <v>401</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>527</v>
       </c>
       <c r="D68" t="s">
@@ -6002,14 +5928,14 @@
         <v>354</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69">
         <v>401</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>527</v>
       </c>
       <c r="D69" t="s">
@@ -6037,14 +5963,14 @@
         <v>344</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70">
         <v>401</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>528</v>
       </c>
       <c r="D70" t="s">
@@ -6072,14 +5998,14 @@
         <v>243</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71">
         <v>401</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>528</v>
       </c>
       <c r="D71" t="s">
@@ -6094,7 +6020,6 @@
       <c r="G71" t="s">
         <v>359</v>
       </c>
-      <c r="H71"/>
       <c r="I71" t="s">
         <v>229</v>
       </c>
@@ -6105,14 +6030,13 @@
         <v>344</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72">
         <v>201</v>
       </c>
       <c r="B72" t="s">
         <v>45</v>
       </c>
-      <c r="C72"/>
       <c r="D72" t="s">
         <v>360</v>
       </c>
@@ -6125,21 +6049,17 @@
       <c r="G72" t="s">
         <v>361</v>
       </c>
-      <c r="H72"/>
       <c r="I72" t="s">
         <v>16</v>
       </c>
-      <c r="J72"/>
-      <c r="K72"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73">
         <v>201</v>
       </c>
       <c r="B73" t="s">
         <v>45</v>
       </c>
-      <c r="C73"/>
       <c r="D73" t="s">
         <v>360</v>
       </c>
@@ -6152,21 +6072,17 @@
       <c r="G73" t="s">
         <v>362</v>
       </c>
-      <c r="H73"/>
       <c r="I73" t="s">
         <v>16</v>
       </c>
-      <c r="J73"/>
-      <c r="K73"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74">
         <v>201</v>
       </c>
       <c r="B74" t="s">
         <v>45</v>
       </c>
-      <c r="C74"/>
       <c r="D74" t="s">
         <v>360</v>
       </c>
@@ -6179,21 +6095,17 @@
       <c r="G74" t="s">
         <v>361</v>
       </c>
-      <c r="H74"/>
       <c r="I74" t="s">
         <v>16</v>
       </c>
-      <c r="J74"/>
-      <c r="K74"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75">
         <v>201</v>
       </c>
       <c r="B75" t="s">
         <v>45</v>
       </c>
-      <c r="C75"/>
       <c r="D75" t="s">
         <v>360</v>
       </c>
@@ -6206,21 +6118,17 @@
       <c r="G75" t="s">
         <v>363</v>
       </c>
-      <c r="H75"/>
       <c r="I75" t="s">
         <v>12</v>
       </c>
-      <c r="J75"/>
-      <c r="K75"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76">
         <v>202</v>
       </c>
       <c r="B76" t="s">
         <v>48</v>
       </c>
-      <c r="C76"/>
       <c r="D76" t="s">
         <v>360</v>
       </c>
@@ -6239,17 +6147,14 @@
       <c r="I76" t="s">
         <v>229</v>
       </c>
-      <c r="J76"/>
-      <c r="K76"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77">
         <v>202</v>
       </c>
       <c r="B77" t="s">
         <v>48</v>
       </c>
-      <c r="C77"/>
       <c r="D77" t="s">
         <v>360</v>
       </c>
@@ -6268,17 +6173,14 @@
       <c r="I77" t="s">
         <v>229</v>
       </c>
-      <c r="J77"/>
-      <c r="K77"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78">
         <v>202</v>
       </c>
       <c r="B78" t="s">
         <v>48</v>
       </c>
-      <c r="C78"/>
       <c r="D78" t="s">
         <v>360</v>
       </c>
@@ -6297,17 +6199,14 @@
       <c r="I78" t="s">
         <v>229</v>
       </c>
-      <c r="J78"/>
-      <c r="K78"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79">
         <v>202</v>
       </c>
       <c r="B79" t="s">
         <v>48</v>
       </c>
-      <c r="C79"/>
       <c r="D79" t="s">
         <v>360</v>
       </c>
@@ -6326,17 +6225,14 @@
       <c r="I79" t="s">
         <v>229</v>
       </c>
-      <c r="J79"/>
-      <c r="K79"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80">
         <v>203</v>
       </c>
       <c r="B80" t="s">
         <v>53</v>
       </c>
-      <c r="C80"/>
       <c r="D80" t="s">
         <v>360</v>
       </c>
@@ -6355,17 +6251,14 @@
       <c r="I80" t="s">
         <v>229</v>
       </c>
-      <c r="J80"/>
-      <c r="K80"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81">
         <v>203</v>
       </c>
       <c r="B81" t="s">
         <v>53</v>
       </c>
-      <c r="C81"/>
       <c r="D81" t="s">
         <v>360</v>
       </c>
@@ -6384,17 +6277,14 @@
       <c r="I81" t="s">
         <v>229</v>
       </c>
-      <c r="J81"/>
-      <c r="K81"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82">
         <v>203</v>
       </c>
       <c r="B82" t="s">
         <v>53</v>
       </c>
-      <c r="C82"/>
       <c r="D82" t="s">
         <v>360</v>
       </c>
@@ -6413,17 +6303,14 @@
       <c r="I82" t="s">
         <v>229</v>
       </c>
-      <c r="J82"/>
-      <c r="K82"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83">
         <v>203</v>
       </c>
       <c r="B83" t="s">
         <v>53</v>
       </c>
-      <c r="C83"/>
       <c r="D83" t="s">
         <v>360</v>
       </c>
@@ -6442,17 +6329,14 @@
       <c r="I83" t="s">
         <v>229</v>
       </c>
-      <c r="J83"/>
-      <c r="K83"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84">
         <v>205</v>
       </c>
       <c r="B84" t="s">
         <v>59</v>
       </c>
-      <c r="C84"/>
       <c r="D84" t="s">
         <v>360</v>
       </c>
@@ -6468,18 +6352,14 @@
       <c r="H84" t="s">
         <v>118</v>
       </c>
-      <c r="I84"/>
-      <c r="J84"/>
-      <c r="K84"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85">
         <v>205</v>
       </c>
       <c r="B85" t="s">
         <v>59</v>
       </c>
-      <c r="C85"/>
       <c r="D85" t="s">
         <v>360</v>
       </c>
@@ -6492,19 +6372,14 @@
       <c r="G85" t="s">
         <v>374</v>
       </c>
-      <c r="H85"/>
-      <c r="I85"/>
-      <c r="J85"/>
-      <c r="K85"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86">
         <v>206</v>
       </c>
       <c r="B86" t="s">
         <v>62</v>
       </c>
-      <c r="C86"/>
       <c r="D86" t="s">
         <v>360</v>
       </c>
@@ -6517,21 +6392,17 @@
       <c r="G86" t="s">
         <v>375</v>
       </c>
-      <c r="H86"/>
       <c r="I86" t="s">
         <v>16</v>
       </c>
-      <c r="J86"/>
-      <c r="K86"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87">
         <v>206</v>
       </c>
       <c r="B87" t="s">
         <v>62</v>
       </c>
-      <c r="C87"/>
       <c r="D87" t="s">
         <v>360</v>
       </c>
@@ -6550,17 +6421,14 @@
       <c r="I87" t="s">
         <v>16</v>
       </c>
-      <c r="J87"/>
-      <c r="K87"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88">
         <v>301</v>
       </c>
       <c r="B88" t="s">
         <v>81</v>
       </c>
-      <c r="C88"/>
       <c r="D88" t="s">
         <v>360</v>
       </c>
@@ -6573,21 +6441,17 @@
       <c r="G88" t="s">
         <v>377</v>
       </c>
-      <c r="H88"/>
       <c r="I88" t="s">
         <v>16</v>
       </c>
-      <c r="J88"/>
-      <c r="K88"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89">
         <v>301</v>
       </c>
       <c r="B89" t="s">
         <v>81</v>
       </c>
-      <c r="C89"/>
       <c r="D89" t="s">
         <v>360</v>
       </c>
@@ -6600,21 +6464,17 @@
       <c r="G89" t="s">
         <v>378</v>
       </c>
-      <c r="H89"/>
       <c r="I89" t="s">
         <v>16</v>
       </c>
-      <c r="J89"/>
-      <c r="K89"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90">
         <v>301</v>
       </c>
       <c r="B90" t="s">
         <v>81</v>
       </c>
-      <c r="C90"/>
       <c r="D90" t="s">
         <v>360</v>
       </c>
@@ -6627,21 +6487,17 @@
       <c r="G90" t="s">
         <v>379</v>
       </c>
-      <c r="H90"/>
       <c r="I90" t="s">
         <v>16</v>
       </c>
-      <c r="J90"/>
-      <c r="K90"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91">
         <v>301</v>
       </c>
       <c r="B91" t="s">
         <v>81</v>
       </c>
-      <c r="C91"/>
       <c r="D91" t="s">
         <v>360</v>
       </c>
@@ -6654,21 +6510,17 @@
       <c r="G91" t="s">
         <v>380</v>
       </c>
-      <c r="H91"/>
       <c r="I91" t="s">
         <v>12</v>
       </c>
-      <c r="J91"/>
-      <c r="K91"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92">
         <v>302</v>
       </c>
       <c r="B92" t="s">
         <v>66</v>
       </c>
-      <c r="C92"/>
       <c r="D92" t="s">
         <v>360</v>
       </c>
@@ -6681,21 +6533,17 @@
       <c r="G92" t="s">
         <v>381</v>
       </c>
-      <c r="H92"/>
       <c r="I92" t="s">
         <v>70</v>
       </c>
-      <c r="J92"/>
-      <c r="K92"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93">
         <v>302</v>
       </c>
       <c r="B93" t="s">
         <v>66</v>
       </c>
-      <c r="C93"/>
       <c r="D93" t="s">
         <v>360</v>
       </c>
@@ -6714,17 +6562,14 @@
       <c r="I93" t="s">
         <v>70</v>
       </c>
-      <c r="J93"/>
-      <c r="K93"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94">
         <v>302</v>
       </c>
       <c r="B94" t="s">
         <v>66</v>
       </c>
-      <c r="C94"/>
       <c r="D94" t="s">
         <v>360</v>
       </c>
@@ -6737,21 +6582,17 @@
       <c r="G94" t="s">
         <v>384</v>
       </c>
-      <c r="H94"/>
       <c r="I94" t="s">
         <v>70</v>
       </c>
-      <c r="J94"/>
-      <c r="K94"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95">
         <v>302</v>
       </c>
       <c r="B95" t="s">
         <v>66</v>
       </c>
-      <c r="C95"/>
       <c r="D95" t="s">
         <v>360</v>
       </c>
@@ -6764,21 +6605,17 @@
       <c r="G95" t="s">
         <v>385</v>
       </c>
-      <c r="H95"/>
       <c r="I95" t="s">
         <v>70</v>
       </c>
-      <c r="J95"/>
-      <c r="K95"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96">
         <v>303</v>
       </c>
       <c r="B96" t="s">
         <v>86</v>
       </c>
-      <c r="C96"/>
       <c r="D96" t="s">
         <v>360</v>
       </c>
@@ -6797,17 +6634,14 @@
       <c r="I96" t="s">
         <v>387</v>
       </c>
-      <c r="J96"/>
-      <c r="K96"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97">
         <v>303</v>
       </c>
       <c r="B97" t="s">
         <v>86</v>
       </c>
-      <c r="C97"/>
       <c r="D97" t="s">
         <v>360</v>
       </c>
@@ -6826,17 +6660,14 @@
       <c r="I97" t="s">
         <v>239</v>
       </c>
-      <c r="J97"/>
-      <c r="K97"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98">
         <v>303</v>
       </c>
       <c r="B98" t="s">
         <v>86</v>
       </c>
-      <c r="C98"/>
       <c r="D98" t="s">
         <v>360</v>
       </c>
@@ -6855,17 +6686,14 @@
       <c r="I98" t="s">
         <v>12</v>
       </c>
-      <c r="J98"/>
-      <c r="K98"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99">
         <v>304</v>
       </c>
       <c r="B99" t="s">
         <v>78</v>
       </c>
-      <c r="C99"/>
       <c r="D99" t="s">
         <v>360</v>
       </c>
@@ -6878,21 +6706,17 @@
       <c r="G99" t="s">
         <v>390</v>
       </c>
-      <c r="H99"/>
       <c r="I99" t="s">
         <v>16</v>
       </c>
-      <c r="J99"/>
-      <c r="K99"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100">
         <v>304</v>
       </c>
       <c r="B100" t="s">
         <v>78</v>
       </c>
-      <c r="C100"/>
       <c r="D100" t="s">
         <v>360</v>
       </c>
@@ -6905,21 +6729,17 @@
       <c r="G100" t="s">
         <v>391</v>
       </c>
-      <c r="H100"/>
       <c r="I100" t="s">
         <v>16</v>
       </c>
-      <c r="J100"/>
-      <c r="K100"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A101">
         <v>304</v>
       </c>
       <c r="B101" t="s">
         <v>78</v>
       </c>
-      <c r="C101"/>
       <c r="D101" t="s">
         <v>360</v>
       </c>
@@ -6932,21 +6752,17 @@
       <c r="G101" t="s">
         <v>392</v>
       </c>
-      <c r="H101"/>
       <c r="I101" t="s">
         <v>16</v>
       </c>
-      <c r="J101"/>
-      <c r="K101"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A102">
         <v>304</v>
       </c>
       <c r="B102" t="s">
         <v>78</v>
       </c>
-      <c r="C102"/>
       <c r="D102" t="s">
         <v>360</v>
       </c>
@@ -6965,17 +6781,14 @@
       <c r="I102" t="s">
         <v>16</v>
       </c>
-      <c r="J102"/>
-      <c r="K102"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103">
         <v>305</v>
       </c>
       <c r="B103" t="s">
         <v>75</v>
       </c>
-      <c r="C103"/>
       <c r="D103" t="s">
         <v>360</v>
       </c>
@@ -7001,14 +6814,13 @@
         <v>298</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104">
         <v>305</v>
       </c>
       <c r="B104" t="s">
         <v>75</v>
       </c>
-      <c r="C104"/>
       <c r="D104" t="s">
         <v>360</v>
       </c>
@@ -7034,14 +6846,13 @@
         <v>397</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105">
         <v>305</v>
       </c>
       <c r="B105" t="s">
         <v>75</v>
       </c>
-      <c r="C105"/>
       <c r="D105" t="s">
         <v>360</v>
       </c>
@@ -7063,16 +6874,14 @@
       <c r="J105" t="s">
         <v>400</v>
       </c>
-      <c r="K105"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106">
         <v>306</v>
       </c>
       <c r="B106" t="s">
         <v>84</v>
       </c>
-      <c r="C106"/>
       <c r="D106" t="s">
         <v>360</v>
       </c>
@@ -7085,23 +6894,20 @@
       <c r="G106" t="s">
         <v>401</v>
       </c>
-      <c r="H106"/>
       <c r="I106" t="s">
         <v>372</v>
       </c>
       <c r="J106" t="s">
         <v>402</v>
       </c>
-      <c r="K106"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107">
         <v>306</v>
       </c>
       <c r="B107" t="s">
         <v>84</v>
       </c>
-      <c r="C107"/>
       <c r="D107" t="s">
         <v>360</v>
       </c>
@@ -7114,33 +6920,26 @@
       <c r="G107" t="s">
         <v>403</v>
       </c>
-      <c r="H107"/>
       <c r="I107" t="s">
         <v>372</v>
       </c>
       <c r="J107" t="s">
         <v>404</v>
       </c>
-      <c r="K107"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A108">
         <v>305</v>
       </c>
       <c r="B108" t="s">
         <v>75</v>
       </c>
-      <c r="C108"/>
       <c r="D108" t="s">
         <v>360</v>
       </c>
-      <c r="E108"/>
       <c r="F108" t="s">
         <v>238</v>
       </c>
-      <c r="G108"/>
-      <c r="H108"/>
-      <c r="I108"/>
       <c r="J108" t="s">
         <v>294</v>
       </c>
@@ -7150,6 +6949,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>